--- a/rcodes/attributable_fraction_R_codes/CCSS/Huiqi/ccss_data_request_Huiqi.xlsx
+++ b/rcodes/attributable_fraction_R_codes/CCSS/Huiqi/ccss_data_request_Huiqi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\ClusterHome\aneupane\St_Jude\Achal_St_Jude\rcodes\attributable_fraction_R_codes\CCSS\Huiqi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1450D9-F63B-4800-AB7E-AA382436C204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EADACE8-630C-42A5-A99A-3D04DE6E90EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77D72B9D-8547-4523-BD52-729B33F3BE5C}"/>
   </bookViews>
@@ -256,12 +256,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -284,13 +290,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,7 +619,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,24 +632,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -648,7 +657,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -656,7 +665,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -664,17 +673,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -682,7 +691,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -690,7 +699,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -698,7 +707,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -706,7 +715,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -714,7 +723,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -722,7 +731,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -730,7 +739,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -738,7 +747,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -746,7 +755,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -754,7 +763,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -762,7 +771,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -770,7 +779,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -781,7 +790,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -790,7 +799,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -799,7 +808,7 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -808,7 +817,7 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -817,7 +826,7 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -826,7 +835,7 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -835,7 +844,7 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -844,7 +853,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -853,7 +862,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -862,7 +871,7 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
